--- a/mysqlTest/db_test/gamedata.xlsx
+++ b/mysqlTest/db_test/gamedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mjc813\Github\sgh_mjc813Exam\mysqlTest\db_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{936D16F3-034F-4AFF-A013-F65969164C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E760748-BA66-4122-802B-5D2D5AC9266C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="765" windowWidth="14460" windowHeight="10845" xr2:uid="{534BAFC4-58E3-4520-AD79-425FF7F8A743}"/>
+    <workbookView xWindow="5475" yWindow="960" windowWidth="14460" windowHeight="10845" xr2:uid="{534BAFC4-58E3-4520-AD79-425FF7F8A743}"/>
   </bookViews>
   <sheets>
     <sheet name="정규화필요한데이터상황" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="106">
   <si>
     <t>상대사용자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,6 +449,14 @@
   </si>
   <si>
     <t>unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -842,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AA9E42-3F62-4571-A260-2622DE244800}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1213,10 +1221,22 @@
       <c r="H16" s="2">
         <v>3</v>
       </c>
+      <c r="N16" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" t="s">
+        <v>105</v>
+      </c>
       <c r="Q16" s="4" t="s">
         <v>103</v>
       </c>
       <c r="R16" s="4"/>
+      <c r="S16" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
@@ -1536,8 +1556,14 @@
       <c r="N30" t="s">
         <v>81</v>
       </c>
+      <c r="P30" t="s">
+        <v>104</v>
+      </c>
       <c r="Q30" t="s">
         <v>82</v>
+      </c>
+      <c r="S30" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/mysqlTest/db_test/gamedata.xlsx
+++ b/mysqlTest/db_test/gamedata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mjc813\Github\sgh_mjc813Exam\mysqlTest\db_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E760748-BA66-4122-802B-5D2D5AC9266C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92768A83-F5C5-4148-A496-DB3B1F2E0907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5475" yWindow="960" windowWidth="14460" windowHeight="10845" xr2:uid="{534BAFC4-58E3-4520-AD79-425FF7F8A743}"/>
   </bookViews>
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AA9E42-3F62-4571-A260-2622DE244800}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
